--- a/screenshot Site/Liste screenshot.xlsx
+++ b/screenshot Site/Liste screenshot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christophe\Pictures\screenshot Site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\sante\screenshot Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>admin groupe</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>modal afficher code groupe</t>
+  </si>
+  <si>
+    <t>profil suppervision</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,15 +159,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,133 +505,139 @@
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/screenshot Site/Liste screenshot.xlsx
+++ b/screenshot Site/Liste screenshot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,12 +180,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +505,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +523,7 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -529,7 +537,7 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -540,7 +548,7 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -551,7 +559,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -562,7 +570,7 @@
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -571,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -580,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/screenshot Site/Liste screenshot.xlsx
+++ b/screenshot Site/Liste screenshot.xlsx
@@ -184,10 +184,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,16 +517,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -534,10 +534,10 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -545,10 +545,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -556,10 +556,10 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -567,10 +567,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -588,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
